--- a/templates/Excel/Maintainance.xlsx
+++ b/templates/Excel/Maintainance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>calendar_date</t>
+          <t>date</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -446,22 +446,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>pressure_4P7A</t>
+          <t>Main Pressure</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>leakage_test</t>
+          <t>Leakage Test (Fixture Alignment)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>pressure_4P7C</t>
+          <t>TDC Value</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>pressure_4P7D</t>
+          <t>BDC Value</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -471,476 +471,715 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>qa_sign</t>
+          <t>qa-sign</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>eng_sign</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>eng-sign</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Main Pressure</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>TDC Value</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>BDC Value</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>qa-sign</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>SHIFT2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>M_OK</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2" t="n">
+        <v>57</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SHIFT2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>M_OK</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>73</v>
+      </c>
+      <c r="F3" t="n">
+        <v>57</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SHIFT2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>M_OK</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>73</v>
+      </c>
+      <c r="F4" t="n">
+        <v>57</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>SHIFT1</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>M_OK</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>q</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>73</v>
+      </c>
+      <c r="F5" t="n">
+        <v>57</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>SHIFT1</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>sadf</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>fg</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>73</v>
+      </c>
+      <c r="F6" t="n">
+        <v>57</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SHIFT1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>73</v>
+      </c>
+      <c r="F7" t="n">
+        <v>57</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-01-11</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SHIFT1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>73</v>
+      </c>
+      <c r="F8" t="n">
+        <v>57</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SHIFT1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>73</v>
+      </c>
+      <c r="F9" t="n">
+        <v>57</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SHIFT1</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>73</v>
+      </c>
+      <c r="F10" t="n">
+        <v>57</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SHIFT1</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>73</v>
+      </c>
+      <c r="F11" t="n">
+        <v>57</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>xxx</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>xxx</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>xxx</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SHIFT1</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>73</v>
+      </c>
+      <c r="F12" t="n">
+        <v>57</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>zzzz</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>zzzz</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>zzzz</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>2025-01-09</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>6</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>SHIFT1</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>q</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2025-01-23</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>6</v>
-      </c>
-      <c r="M5" t="n">
-        <v>6</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>73</v>
+      </c>
+      <c r="F13" t="n">
+        <v>57</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>zzzzzzz</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>asaaaaa</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>aaaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>SHIFT1</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>q</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2025-01-23</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>6</v>
-      </c>
-      <c r="M6" t="n">
-        <v>6</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>73</v>
+      </c>
+      <c r="F14" t="n">
+        <v>57</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>qqqqqq</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>qqqqqq</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>qqqqqq</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SHIFT2</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>57</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>zxzxzx</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>zxzxzx</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>zxzxzx</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SHIFT2</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>73</v>
+      </c>
+      <c r="F16" t="n">
+        <v>57</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>zxzxzx</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>zxzxzx</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>zxzxzx</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SHIFT2</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>73</v>
+      </c>
+      <c r="F17" t="n">
+        <v>57</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>zxzxzx</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>zxzxzx</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>zxzxzx</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>SHIFT1</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SHIFT2</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>q</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2025-01-23</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>6</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SHIFT1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SHIFT1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2025-01-03</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SHIFT1</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2025-01-30</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>6</v>
-      </c>
-      <c r="M11" t="n">
-        <v>73</v>
-      </c>
-      <c r="N11" t="n">
-        <v>57</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SHIFT1</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>2025-01-30</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>6</v>
-      </c>
-      <c r="M12" t="n">
-        <v>73</v>
-      </c>
-      <c r="N12" t="n">
-        <v>57</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>SHIFT1</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>73</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>454545</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>455454</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>545445</t>
         </is>
       </c>
     </row>
